--- a/medicine/Mort/Cimetière_national_des_États-Unis/Cimetière_national_des_États-Unis.xlsx
+++ b/medicine/Mort/Cimetière_national_des_États-Unis/Cimetière_national_des_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_des_%C3%89tats-Unis</t>
+          <t>Cimetière_national_des_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Cimetière national des États-Unis » (United States National Cemetery) est une désignation pour 147 cimetières nationaux importants des États-Unis. L'autorité pour la création de lieux d'inhumation militaires fut instituée pendant la guerre de Sécession, par une loi du Congrès  votée le 17 juillet 1862, 14 cimetières nationaux sont alors créés.
 Un cimetière national est généralement un cimetière militaire abritant les tombes de militaires américains, d'anciens combattants et de leurs épouses mais pas exclusivement.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_des_%C3%89tats-Unis</t>
+          <t>Cimetière_national_des_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_des_%C3%89tats-Unis</t>
+          <t>Cimetière_national_des_États-Unis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « United States national cemetery » (voir la liste des auteurs).</t>
         </is>
